--- a/20_Electronics/ComponentCals.xlsx
+++ b/20_Electronics/ComponentCals.xlsx
@@ -1,24 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Projects\02_Hephaestus\miStepper\20_Electronics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC19D7-CDEC-4166-8FF7-95A930C2B6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="A4988" sheetId="1" r:id="rId1"/>
-    <sheet name="CS30" sheetId="2" r:id="rId2"/>
-    <sheet name="Potential Divider" sheetId="3" r:id="rId3"/>
-    <sheet name="Typical Resistor Values" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="LED Resistors" sheetId="6" r:id="rId5"/>
+    <sheet name="CAN IC" sheetId="16" r:id="rId1"/>
+    <sheet name="Stepper IC" sheetId="1" r:id="rId2"/>
+    <sheet name="AnalogInputs-Volt (STEPPER-REF)" sheetId="15" r:id="rId3"/>
+    <sheet name="AnalogInputs-Volt (STEPPER)" sheetId="11" r:id="rId4"/>
+    <sheet name="CS30 (STEPPER)" sheetId="13" r:id="rId5"/>
+    <sheet name="AnalogInputs-Volt (FAN)" sheetId="12" r:id="rId6"/>
+    <sheet name="CS30 (FAN)" sheetId="2" r:id="rId7"/>
+    <sheet name="Typical Component Values" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="ADC input impedance" sheetId="9" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="MCP2551_Res">'CAN IC'!$A$6:$A$18</definedName>
+    <definedName name="MCP2551_Slew">'CAN IC'!$C$6:$C$18</definedName>
+    <definedName name="MCP2551Tab">'CAN IC'!$A$2:$B$3</definedName>
+    <definedName name="SN65HVD23x">'CAN IC'!$F$2:$G$3</definedName>
+    <definedName name="SN65HVD23x_Res">'CAN IC'!$F$6:$F$17</definedName>
+    <definedName name="SN65HVD23x_Slew">'CAN IC'!$H$6:$H$17</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thomas</author>
+  </authors>
+  <commentList>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{0056F633-D9CF-4D7E-A450-2CEB5E7E1306}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PiCAN2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="120">
   <si>
     <t>Target ITripMAX</t>
   </si>
@@ -146,9 +198,6 @@
     <t>Max Measureable Current</t>
   </si>
   <si>
-    <t>Voltage Range of R2</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
@@ -177,57 +226,6 @@
   </si>
   <si>
     <t>Max Source</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Forward Voltage (min) (V)</t>
-  </si>
-  <si>
-    <t>Forward Voltage (max) (V)</t>
-  </si>
-  <si>
-    <t>Steady Current (mA)</t>
-  </si>
-  <si>
-    <t>Voltage Supply</t>
-  </si>
-  <si>
-    <t>Voltage across resistor (average) (V)</t>
-  </si>
-  <si>
-    <t>Resistance (Ohm)</t>
-  </si>
-  <si>
-    <t>Red Resistor</t>
-  </si>
-  <si>
-    <t>Green Resistor</t>
-  </si>
-  <si>
-    <t>Blue Resistor</t>
-  </si>
-  <si>
-    <t>Current through Resistors (mA)</t>
-  </si>
-  <si>
-    <t>Selected Resistor Values (Ohm)</t>
-  </si>
-  <si>
-    <t>Power in Resistor (mW)</t>
-  </si>
-  <si>
-    <t>Power in LEDs (Max) (mW)</t>
-  </si>
-  <si>
-    <t>Max Power Dissipation (mW)</t>
   </si>
   <si>
     <t>Motor Voltage</t>
@@ -292,15 +290,280 @@
   <si>
     <t>On Resistance</t>
   </si>
+  <si>
+    <t>Parameter Settings</t>
+  </si>
+  <si>
+    <t>Source Voltage</t>
+  </si>
+  <si>
+    <t>ADC Sample time</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>Rfilt Selector</t>
+  </si>
+  <si>
+    <t>Cfilt Selector</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>ADC Input range</t>
+  </si>
+  <si>
+    <t>Sample Freq</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Circuit Diagram</t>
+  </si>
+  <si>
+    <t>Potential Divider</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Target Frequency</t>
+  </si>
+  <si>
+    <t>* Sample frequency is to be 2-&gt;5 times the cut-off frequency (STM - AN2834, Section 4.2.3)</t>
+  </si>
+  <si>
+    <t>RC Time constant</t>
+  </si>
+  <si>
+    <t>Rfilt</t>
+  </si>
+  <si>
+    <t>http://www.rfcafe.com/references/electrical/resistor-values.htm</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Cfilt</t>
+  </si>
+  <si>
+    <t>Cut-off Frequency</t>
+  </si>
+  <si>
+    <t>Current Draw</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>Sampling cycle</t>
+  </si>
+  <si>
+    <t>Sampling cycle @80MHz</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Slow Channels</t>
+  </si>
+  <si>
+    <t>Fast Channels</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> max (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω)</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum Ohm</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>Voltage Input Good?</t>
+  </si>
+  <si>
+    <t>Current Draw Good?</t>
+  </si>
+  <si>
+    <t>Input impedance Good?</t>
+  </si>
+  <si>
+    <t>Input Impedance</t>
+  </si>
+  <si>
+    <t>ADC Impedance</t>
+  </si>
+  <si>
+    <t>Maximum current sunk</t>
+  </si>
+  <si>
+    <t>Acceptable?</t>
+  </si>
+  <si>
+    <t>Selected for FAN Current Draw sensing</t>
+  </si>
+  <si>
+    <t>Selected for STEPPER Current Draw sensing</t>
+  </si>
+  <si>
+    <t>MCP2551</t>
+  </si>
+  <si>
+    <t>SN65HVD23x</t>
+  </si>
+  <si>
+    <r>
+      <t>Slew Rate
+(V/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resistance
+(k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω)</t>
+    </r>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Recessive Voltage</t>
+  </si>
+  <si>
+    <t>Dominant (CANH)</t>
+  </si>
+  <si>
+    <t>Dominant (CANL)</t>
+  </si>
+  <si>
+    <t>Max Step</t>
+  </si>
+  <si>
+    <t>Change Time</t>
+  </si>
+  <si>
+    <t>µs</t>
+  </si>
+  <si>
+    <t>CAN Frequency</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,33 +581,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,22 +650,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -388,13 +669,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,47 +704,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -466,6 +794,80 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -503,8 +905,1386 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>CAN Rref Resistances to Slew Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CAN IC'!$F$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SN65HVD23x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CAN IC'!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CAN IC'!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.939446366782004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.944636678200688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.955017301038062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.316608996539788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.418685121107263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6505190311418652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0121107266435949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9792387543252588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7249134948096874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7249134948096874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1DD-4233-B2C0-713D7FC2B96A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CAN IC'!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCP2551</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CAN IC'!$A$7:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CAN IC'!$C$7:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23.4860883797054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.348608837970541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.911620294599018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.047463175122751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1653027823240585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5286415711947612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9328968903436987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7463175122749597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.173486088379704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0507364975450066</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0098199672667754</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.887070376432078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1DD-4233-B2C0-713D7FC2B96A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1021081823"/>
+        <c:axId val="918681839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1021081823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Resistance (k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918681839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="918681839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Slew Rate (V/µs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021081823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4463F6AD-CDC8-4BBD-BBFA-7320BA504007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>344425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2343FEF1-D7EC-43EB-8170-BC1BD6BEFAE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762356" y="342900"/>
+          <a:ext cx="9879469" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>344425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B6CEB-1E98-457E-91D2-D15D02451618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762356" y="342900"/>
+          <a:ext cx="9879469" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>344425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE23B7E1-C45A-421B-BE07-315F963A5249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762356" y="342900"/>
+          <a:ext cx="9879469" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,7 +2330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,9 +2363,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,6 +2415,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,11 +2607,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9BCAD5-8661-433F-8C6A-36C67BF68A14}">
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="F1" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26">
+        <v>682</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="31">
+        <f>(INDEX(MCP2551Tab,1,1)-INDEX(MCP2551Tab,2,1))/(INDEX(MCP2551Tab,1,2)-INDEX(MCP2551Tab,2,2))</f>
+        <v>-4.0916530278232409E-2</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>738</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="31">
+        <f>(INDEX(SN65HVD23x,1,1)-INDEX(SN65HVD23x,2,1))/(INDEX(SN65HVD23x,1,2)-INDEX(SN65HVD23x,2,2))</f>
+        <v>-4.3252595155709339E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>25</v>
+      </c>
+      <c r="B3" s="26">
+        <v>71</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="31">
+        <f>B2*E2</f>
+        <v>-27.905073649754502</v>
+      </c>
+      <c r="F3" s="26">
+        <v>25</v>
+      </c>
+      <c r="G3" s="26">
+        <v>160</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="31">
+        <f>G2*J2</f>
+        <v>-31.920415224913491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29">
+        <v>23.4860883797054</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28">
+        <v>19.939446366782004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>10</v>
+      </c>
+      <c r="B7" s="26">
+        <v>108</v>
+      </c>
+      <c r="C7" s="26">
+        <v>23.4860883797054</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>277</v>
+      </c>
+      <c r="H7" s="25">
+        <v>19.939446366782004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>20</v>
+      </c>
+      <c r="B8" s="26">
+        <v>258</v>
+      </c>
+      <c r="C8" s="26">
+        <v>17.348608837970541</v>
+      </c>
+      <c r="F8" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="G8" s="26">
+        <v>300</v>
+      </c>
+      <c r="H8" s="25">
+        <v>18.944636678200688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>30</v>
+      </c>
+      <c r="B9" s="26">
+        <v>342</v>
+      </c>
+      <c r="C9" s="26">
+        <v>13.911620294599018</v>
+      </c>
+      <c r="F9" s="25">
+        <v>6.8</v>
+      </c>
+      <c r="G9" s="26">
+        <v>346</v>
+      </c>
+      <c r="H9" s="25">
+        <v>16.955017301038062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>40</v>
+      </c>
+      <c r="B10" s="26">
+        <v>412</v>
+      </c>
+      <c r="C10" s="26">
+        <v>11.047463175122751</v>
+      </c>
+      <c r="F10" s="25">
+        <v>10</v>
+      </c>
+      <c r="G10" s="25">
+        <v>407</v>
+      </c>
+      <c r="H10" s="25">
+        <v>14.316608996539788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>49</v>
+      </c>
+      <c r="B11" s="26">
+        <v>458</v>
+      </c>
+      <c r="C11" s="26">
+        <v>9.1653027823240585</v>
+      </c>
+      <c r="F11" s="25">
+        <v>15</v>
+      </c>
+      <c r="G11" s="25">
+        <v>474</v>
+      </c>
+      <c r="H11" s="25">
+        <v>11.418685121107263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>60</v>
+      </c>
+      <c r="B12" s="26">
+        <v>498</v>
+      </c>
+      <c r="C12" s="26">
+        <v>7.5286415711947612</v>
+      </c>
+      <c r="F12" s="25">
+        <v>22</v>
+      </c>
+      <c r="G12" s="25">
+        <v>538</v>
+      </c>
+      <c r="H12" s="25">
+        <v>8.6505190311418652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>70</v>
+      </c>
+      <c r="B13" s="26">
+        <v>537</v>
+      </c>
+      <c r="C13" s="26">
+        <v>5.9328968903436987</v>
+      </c>
+      <c r="F13" s="25">
+        <v>33</v>
+      </c>
+      <c r="G13" s="25">
+        <v>599</v>
+      </c>
+      <c r="H13" s="25">
+        <v>6.0121107266435949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>76</v>
+      </c>
+      <c r="B14" s="26">
+        <v>566</v>
+      </c>
+      <c r="C14" s="26">
+        <v>4.7463175122749597</v>
+      </c>
+      <c r="F14" s="25">
+        <v>47</v>
+      </c>
+      <c r="G14" s="25">
+        <v>646</v>
+      </c>
+      <c r="H14" s="25">
+        <v>3.9792387543252588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>90</v>
+      </c>
+      <c r="B15" s="26">
+        <v>580</v>
+      </c>
+      <c r="C15" s="26">
+        <v>4.173486088379704</v>
+      </c>
+      <c r="F15" s="25">
+        <v>68</v>
+      </c>
+      <c r="G15" s="25">
+        <v>675</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2.7249134948096874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>100</v>
+      </c>
+      <c r="B16" s="26">
+        <v>583</v>
+      </c>
+      <c r="C16" s="26">
+        <v>4.0507364975450066</v>
+      </c>
+      <c r="F16" s="25">
+        <v>100</v>
+      </c>
+      <c r="G16" s="25">
+        <v>675</v>
+      </c>
+      <c r="H16" s="25">
+        <v>2.7249134948096874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>110</v>
+      </c>
+      <c r="B17" s="26">
+        <v>584</v>
+      </c>
+      <c r="C17" s="26">
+        <v>4.0098199672667754</v>
+      </c>
+      <c r="F17" s="25">
+        <v>500</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="28">
+        <v>2.7249134948096874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>120</v>
+      </c>
+      <c r="B18" s="26">
+        <v>587</v>
+      </c>
+      <c r="C18" s="26">
+        <v>3.887070376432078</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="F20" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>4.7</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="32">
+        <f>FORECAST(A21,
+INDEX(MCP2551_Slew,MATCH(A21,MCP2551_Res,1)):INDEX(MCP2551_Slew,MATCH(A21,MCP2551_Res,1)+1),
+INDEX(MCP2551_Res,MATCH(A21,MCP2551_Res,1)):INDEX(MCP2551_Res,MATCH(A21,MCP2551_Res,1)+1))</f>
+        <v>23.4860883797054</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="35">
+        <v>7.5</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="32">
+        <f>FORECAST(F21,
+INDEX(SN65HVD23x_Slew,MATCH(F21,SN65HVD23x_Res,1)):INDEX(SN65HVD23x_Slew,MATCH(F21,SN65HVD23x_Res,1)+1),
+INDEX(SN65HVD23x_Res,MATCH(F21,SN65HVD23x_Res,1)):INDEX(SN65HVD23x_Res,MATCH(F21,SN65HVD23x_Res,1)+1))</f>
+        <v>16.377865484429066</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="37"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="36">
+        <v>3.3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="26">
+        <f>MAX(B24-B23, B24-B25)</f>
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="29">
+        <f>MAX(G24-G23, G24-G25)</f>
+        <v>2.8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="26">
+        <f>B26/C21</f>
+        <v>0.17031358885017422</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="29">
+        <f>G26/H21</f>
+        <v>0.17096244945118427</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="34">
+        <v>1</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="33">
+        <f>(1/(B29*10^6))*(10^6)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +3192,7 @@
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +3213,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1">
         <v>12</v>
@@ -838,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -849,20 +3233,17 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3">
         <f>MAX(B23:E23)</f>
-        <v>0.5205421389684648</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -873,17 +3254,17 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <f>K2*K1</f>
-        <v>6.2465056676215776</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -891,44 +3272,44 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1">
         <f>B6*(1+(B7/100))</f>
-        <v>9.0899999999999995E-2</v>
+        <v>0.34340000000000004</v>
       </c>
       <c r="E6" s="1">
         <f>B6*(1-(B7/100))</f>
-        <v>8.9099999999999999E-2</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -939,93 +3320,93 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="21">
+        <v>59</v>
+      </c>
+      <c r="K8" s="13">
         <f>K5 + (K3*K6)</f>
-        <v>212.39517002864733</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
         <f>$B$3/(8*D6)</f>
-        <v>0.68756875687568764</v>
+        <v>0.18200349446709374</v>
       </c>
       <c r="E9">
         <f>$B$3/(8*E6)</f>
-        <v>0.70145903479236815</v>
+        <v>0.18568033273915627</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
         <f>$B$1*D6</f>
-        <v>6.3629999999999992E-2</v>
+        <v>0.24038000000000001</v>
       </c>
       <c r="E10">
         <f>$B$1*E6</f>
-        <v>6.2369999999999995E-2</v>
+        <v>0.23562</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K11" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <f>(K11^2)*K12</f>
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1040,39 +3421,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="9">
-        <v>60400</v>
+        <v>9760</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1">
         <f>B15*(1+(B16/100))</f>
-        <v>61004</v>
+        <v>9857.6</v>
       </c>
       <c r="E15" s="1">
         <f>B15*(1-(B16/100))</f>
-        <v>59796</v>
+        <v>9662.4</v>
       </c>
       <c r="G15" s="5">
         <f>$B$14*(D17/(D17+D15))</f>
-        <v>0.36450662739322531</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1084,13 +3465,13 @@
       </c>
       <c r="G16" s="5">
         <f>$B$14*(D17/(D17+E15))</f>
-        <v>0.37104243665672171</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -1101,22 +3482,22 @@
         <v>20</v>
       </c>
       <c r="B17" s="9">
-        <v>7500</v>
+        <v>4320</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1">
         <f>B17*(1+(B18/100))</f>
-        <v>7575</v>
+        <v>4363.2</v>
       </c>
       <c r="E17" s="1">
         <f>B17*(1-(B18/100))</f>
-        <v>7425</v>
+        <v>4276.8</v>
       </c>
       <c r="G17" s="5">
         <f>$B$14*(E17/(E17+E15))</f>
-        <v>0.36450662739322531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -1134,31 +3515,31 @@
       </c>
       <c r="G18" s="5">
         <f>$B$14*(E17/(E17+D15))</f>
-        <v>0.35807187011354835</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="21">
+        <v>59</v>
+      </c>
+      <c r="K18" s="13">
         <f>K15 + (K13*K16)</f>
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,19 +3548,19 @@
       </c>
       <c r="B21" s="7">
         <f>MAX(G15:G18)</f>
-        <v>0.37104243665672171</v>
+        <v>0</v>
       </c>
       <c r="C21" s="7">
         <f>MAX(G15:G18)</f>
-        <v>0.37104243665672171</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
         <f>MIN(G15:G18)</f>
-        <v>0.35807187011354835</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
         <f>MIN(G15:G18)</f>
-        <v>0.35807187011354835</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>3</v>
@@ -1191,19 +3572,19 @@
       </c>
       <c r="B22" s="8">
         <f>B6*(1+(B7/100))</f>
-        <v>9.0899999999999995E-2</v>
+        <v>0.34340000000000004</v>
       </c>
       <c r="C22" s="8">
         <f>B6*(1-(B7/100))</f>
-        <v>8.9099999999999999E-2</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="D22" s="8">
         <f>B6*(1+(B7/100))</f>
-        <v>9.0899999999999995E-2</v>
+        <v>0.34340000000000004</v>
       </c>
       <c r="E22" s="8">
         <f>B6*(1-(B7/100))</f>
-        <v>8.9099999999999999E-2</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1215,19 +3596,19 @@
       </c>
       <c r="B23" s="3">
         <f>B21/(8*B22)</f>
-        <v>0.5102343738403764</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ref="C23:E23" si="0">C21/(8*C22)</f>
-        <v>0.5205421389684648</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0.49239806121225022</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>0.50234549679229568</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1239,18 +3620,18 @@
     <mergeCell ref="D20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>D9&gt;$B$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>D9&lt;=$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>D10&gt;$B$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>D10&lt;=$B$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1259,11 +3640,1233 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DAF838-06C3-4EC4-8825-3A8BF4A81FE9}">
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9">
+        <v>97.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="9">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43.2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="17" t="b">
+        <f>MAX(H16:H19)&lt;$B$9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="b">
+        <f>MAX(B22:D22)&lt;H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="b">
+        <f>MAX(D34:E34) &lt; B35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="b">
+        <f>AND(H7:H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(B9/(2^B10)/(B17/(B17+B16)))*1000</f>
+        <v>2.6258680555555554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(B13/1000)*(2^B10)</f>
+        <v>10.755555555555555</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B4*(10^C4)</f>
+        <v>9760</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*(1+(E4/100))</f>
+        <v>9857.6</v>
+      </c>
+      <c r="E16" s="1">
+        <f>B16*(1-(E4/100))</f>
+        <v>9662.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5">
+        <f>$B$2*(D17/(D17+D16))</f>
+        <v>1.0125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B5*(10^C5)</f>
+        <v>4320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B17*(1+(E5/100))</f>
+        <v>4363.2</v>
+      </c>
+      <c r="E17" s="1">
+        <f>B17*(1-(E5/100))</f>
+        <v>4276.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5">
+        <f>$B$2*(E17/(E17+E16))</f>
+        <v>1.0125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <f>$B$2*(D17/(D17+E16))</f>
+        <v>1.0265913757700207</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <f>$B$2*(E17/(E17+D16))</f>
+        <v>0.99851709304958114</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7">
+        <f>MAX(H16:H19)</f>
+        <v>1.0265913757700207</v>
+      </c>
+      <c r="C21" s="7">
+        <f>$B$2*(B17/(B17+B16))</f>
+        <v>1.0125</v>
+      </c>
+      <c r="D21" s="7">
+        <f>MIN(H16:H19)</f>
+        <v>0.99851709304958114</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7">
+        <f>($B$2/$B$16)*1000</f>
+        <v>0.33811475409836061</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:D22" si="0">($B$2/$B$16)*1000</f>
+        <v>0.33811475409836061</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33811475409836061</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="24" spans="1:20" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <f>1/H3</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25/2</f>
+        <v>500</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <f>B25/5</f>
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B6*(10^C6)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28*(1+(E6/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f>B28*(1-(E6/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B7*(10^C7)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29*(1+(E7/100))</f>
+        <v>1.0500000000000001E-7</v>
+      </c>
+      <c r="E29" s="1">
+        <f>B29*(1-(E7/100))</f>
+        <v>9.5000000000000004E-8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1">
+        <f>(B16 + B28) * B29</f>
+        <v>9.7600000000000009E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <f>(D28 + D16) * D29</f>
+        <v>1.0350480000000002E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>(E16 + E28) * E29</f>
+        <v>9.1792800000000004E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1">
+        <f>1 / ( (2*PI()) * B31 )</f>
+        <v>163.06858923349932</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <f>1 / ( (2*PI()) * D31 )</f>
+        <v>153.76576071051323</v>
+      </c>
+      <c r="E32" s="1">
+        <f>1 / ( (2*PI()) * E31 )</f>
+        <v>173.38499652684669</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B16+B28</f>
+        <v>9760</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D16+D28</f>
+        <v>9857.6</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E16+E28</f>
+        <v>9662.4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1">
+        <f>VLOOKUP(CONCATENATE(H5, "_", H4), 'ADC input impedance'!$H:$I,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K17:T17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:H9 H11">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C4794E8-127E-4020-9CE5-7535483AE61E}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$A$4:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9A561A8-7D31-4A78-89F9-D6BF2225FF83}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD8A01C3-D1B0-4049-83B7-0E194FE8A9E6}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$A$3:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C8ACF0C-B8D3-42DC-89CB-21794E497D6A}">
+          <x14:formula1>
+            <xm:f>'ADC input impedance'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38B6154C-7947-4967-BCB3-069383FB0549}">
+          <x14:formula1>
+            <xm:f>'ADC input impedance'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE65EE4-A59B-4A29-931F-D9C72DE2BBE5}">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9">
+        <v>97.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="9">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="17" t="b">
+        <f>MAX(H16:H19)&lt;$B$9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="b">
+        <f>MAX(B22:D22)&lt;H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="b">
+        <f>MAX(D34:E34) &lt; B35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="b">
+        <f>AND(H7:H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(B9/(2^B10)/(B17/(B17+B16)))*1000</f>
+        <v>4.8175422512755093</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(B13/1000)*(2^B10)</f>
+        <v>19.732653061224486</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B4*(10^C4)</f>
+        <v>9760</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*(1+(E4/100))</f>
+        <v>9857.6</v>
+      </c>
+      <c r="E16" s="1">
+        <f>B16*(1-(E4/100))</f>
+        <v>9662.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5">
+        <f>$B$2*(D17/(D17+D16))</f>
+        <v>2.0068259385665526</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B5*(10^C5)</f>
+        <v>1960.0000000000002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B17*(1+(E5/100))</f>
+        <v>1979.6000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <f>B17*(1-(E5/100))</f>
+        <v>1940.4000000000003</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5">
+        <f>$B$2*(E17/(E17+E16))</f>
+        <v>2.0068259385665534</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <f>$B$2*(D17/(D17+E16))</f>
+        <v>2.0404741453358533</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <f>$B$2*(E17/(E17+D16))</f>
+        <v>1.9736226479064252</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7">
+        <f>MAX(H16:H19)</f>
+        <v>2.0404741453358533</v>
+      </c>
+      <c r="C21" s="7">
+        <f>$B$2*(B17/(B17+B16))</f>
+        <v>2.006825938566553</v>
+      </c>
+      <c r="D21" s="7">
+        <f>MIN(H16:H19)</f>
+        <v>1.9736226479064252</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7">
+        <f>($B$2/$B$16)*1000</f>
+        <v>1.2295081967213115</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:D22" si="0">($B$2/$B$16)*1000</f>
+        <v>1.2295081967213115</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2295081967213115</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="24" spans="1:20" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <f>1/H3</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25/2</f>
+        <v>500</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <f>B25/5</f>
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B6*(10^C6)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28*(1+(E6/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f>B28*(1-(E6/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B7*(10^C7)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29*(1+(E7/100))</f>
+        <v>1.0500000000000001E-7</v>
+      </c>
+      <c r="E29" s="1">
+        <f>B29*(1-(E7/100))</f>
+        <v>9.5000000000000004E-8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1">
+        <f>(B16 + B28) * B29</f>
+        <v>9.7600000000000009E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <f>(D28 + D16) * D29</f>
+        <v>1.0350480000000002E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <f>(E16 + E28) * E29</f>
+        <v>9.1792800000000004E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1">
+        <f>1 / ( (2*PI()) * B31 )</f>
+        <v>163.06858923349932</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <f>1 / ( (2*PI()) * D31 )</f>
+        <v>153.76576071051323</v>
+      </c>
+      <c r="E32" s="1">
+        <f>1 / ( (2*PI()) * E31 )</f>
+        <v>173.38499652684669</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B16+B28</f>
+        <v>9760</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D16+D28</f>
+        <v>9857.6</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E16+E28</f>
+        <v>9662.4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1">
+        <f>VLOOKUP(CONCATENATE(H5, "_", H4), 'ADC input impedance'!$H:$I,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K17:T17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:H9 H11">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91927492-6FF6-4112-BCB5-C45EECBDF6A4}">
+          <x14:formula1>
+            <xm:f>'ADC input impedance'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{002DC8F3-F058-4511-9A10-858936C347F4}">
+          <x14:formula1>
+            <xm:f>'ADC input impedance'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{904B3848-11B8-4AFE-BA48-C1F967D7F638}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$A$3:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67B4729F-3F9B-4CD5-AA04-41EEDD63C944}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A728600-1092-4A73-A1BC-A106525ECCAF}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$A$4:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B817D-29D0-4AF4-8DA6-BE870A176627}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1328,10 +4931,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1429,68 +5032,68 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>$B1*B$8*$B$10</f>
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f>$B1*C$8*$B$10</f>
         <v>2.02</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f>$B1*D$8*$B$10</f>
         <v>1.98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12">
-        <f t="shared" ref="B18:D18" si="0">$B2*B$8*$B$10</f>
+      <c r="B18" s="11">
+        <f t="shared" ref="B18:D19" si="0">$B2*B$8*$B$10</f>
         <v>5</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>5.0500000000000007</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12">
-        <f t="shared" ref="B19:D19" si="1">$B3*B$8*$B$10</f>
+      <c r="B19" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="12">
-        <f t="shared" si="1"/>
+      <c r="C19" s="11">
+        <f t="shared" si="0"/>
         <v>10.100000000000001</v>
       </c>
-      <c r="D19" s="12">
-        <f t="shared" si="1"/>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1499,20 +5102,972 @@
         <v>0.8056640625</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="23">
+        <f>($B$22)/(B1*$B$8)</f>
+        <v>0.8056640625</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="22">
+        <f>(B24/1000)*(2^$B$6)</f>
+        <v>3.3</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <f>($B$22)/(B2*$B$8)</f>
+        <v>0.322265625</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="1">(B25/1000)*(2^$B$6)</f>
+        <v>1.32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <f>($B$22)/(B3*$B$8)</f>
+        <v>0.1611328125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <f>(B26/1000)*(2^$B$6)</f>
+        <v>0.66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D23:F23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B17:D19">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>B17&gt;$B$5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>B17&lt;=$B$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA6824-C615-4309-9AF4-2FABBFC0E601}">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9">
+        <v>97.6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="9">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="17" t="b">
+        <f>MAX(H16:H19)&lt;$B$9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="b">
+        <f>MAX(B22:D22)&lt;H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="b">
+        <f>MAX(D34:E34) &lt; B35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="b">
+        <f>AND(H7:H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(B9/(2^B10)/(B17/(B17+B16)))*1000</f>
+        <v>2.017263638771186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(B13/1000)*(2^B10)</f>
+        <v>8.2627118644067785</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B4*(10^C4)</f>
+        <v>9760</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*(1+(E4/100))</f>
+        <v>9857.6</v>
+      </c>
+      <c r="E16" s="1">
+        <f>B16*(1-(E4/100))</f>
+        <v>9662.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5">
+        <f>$B$2*(D17/(D17+D16))</f>
+        <v>1.996923076923077</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B5*(10^C5)</f>
+        <v>6490.0000000000009</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B17*(1+(E5/100))</f>
+        <v>6554.9000000000005</v>
+      </c>
+      <c r="E17" s="1">
+        <f>B17*(1-(E5/100))</f>
+        <v>6425.1000000000013</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5">
+        <f>$B$2*(E17/(E17+E16))</f>
+        <v>1.9969230769230772</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <f>$B$2*(D17/(D17+E16))</f>
+        <v>2.0209590992335351</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <f>$B$2*(E17/(E17+D16))</f>
+        <v>1.9729835960866442</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7">
+        <f>MAX(H16:H19)</f>
+        <v>2.0209590992335351</v>
+      </c>
+      <c r="C21" s="7">
+        <f>$B$2*(B17/(B17+B16))</f>
+        <v>1.9969230769230772</v>
+      </c>
+      <c r="D21" s="7">
+        <f>MIN(H16:H19)</f>
+        <v>1.9729835960866442</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7">
+        <f>($B$2/$B$16)*1000</f>
+        <v>0.51229508196721318</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:D22" si="0">($B$2/$B$16)*1000</f>
+        <v>0.51229508196721318</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51229508196721318</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="24" spans="1:20" s="16" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <f>1/H3</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25/2</f>
+        <v>500</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <f>B25/5</f>
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B6*(10^C6)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28*(1+(E6/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f>B28*(1-(E6/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B7*(10^C7)</f>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29*(1+(E7/100))</f>
+        <v>1.0500000000000001E-7</v>
+      </c>
+      <c r="E29" s="1">
+        <f>B29*(1-(E7/100))</f>
+        <v>9.5000000000000004E-8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="24">
+        <f>(B16 + B28) * B29</f>
+        <v>9.7600000000000009E-4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="24">
+        <f>(D28 + D16) * D29</f>
+        <v>1.0350480000000002E-3</v>
+      </c>
+      <c r="E31" s="24">
+        <f>(E16 + E28) * E29</f>
+        <v>9.1792800000000004E-4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1">
+        <f>1 / ( (2*PI()) * B31 )</f>
+        <v>163.06858923349932</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <f>1 / ( (2*PI()) * D31 )</f>
+        <v>153.76576071051323</v>
+      </c>
+      <c r="E32" s="1">
+        <f>1 / ( (2*PI()) * E31 )</f>
+        <v>173.38499652684669</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B16+B28</f>
+        <v>9760</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D16+D28</f>
+        <v>9857.6</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E16+E28</f>
+        <v>9662.4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1">
+        <f>VLOOKUP(CONCATENATE(H5, "_", H4), 'ADC input impedance'!$H:$I,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K17:T17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:H9 H11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46DCE53D-94B8-4B33-A9EB-9E3AD4778C42}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$A$4:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C037B1D7-41AC-4F24-94E0-720772E8C495}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ADEE098-D7BE-4AB1-AC3F-56D750D02D96}">
+          <x14:formula1>
+            <xm:f>'Typical Component Values'!$A$3:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{190D7A2C-B848-44FF-BBCB-C8EF3FEE3A73}">
+          <x14:formula1>
+            <xm:f>'ADC input impedance'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9FF2837-225E-4D49-A734-8F586C675EA5}">
+          <x14:formula1>
+            <xm:f>'ADC input impedance'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8*(1+(B9/100))</f>
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8*(1-(B9/100))</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B8*B10</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C8*$B$10</f>
+        <v>2.5250000000000002E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D8*$B$10</f>
+        <v>2.4750000000000001E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <f>POWER($B$10,2)*B8</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <f>POWER($B$10,2)*C8</f>
+        <v>1.2625000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f>POWER($B$10,2)*D8</f>
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11">
+        <f>$B1*B$8*$B$10</f>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="11">
+        <f>$B1*C$8*$B$10</f>
+        <v>0.505</v>
+      </c>
+      <c r="D17" s="11">
+        <f>$B1*D$8*$B$10</f>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" ref="B18:D18" si="0">$B2*B$8*$B$10</f>
+        <v>1.25</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2625000000000002</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:D19" si="1">$B3*B$8*$B$10</f>
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5250000000000004</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4">
+        <f>(B5/(2^B6))*1000</f>
+        <v>0.8056640625</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +6076,7 @@
         <v>0.8056640625</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <f>(B24/1000)*(2^$B$6)</f>
@@ -1531,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +6095,7 @@
         <v>0.322265625</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25" si="2">(B25/1000)*(2^$B$6)</f>
@@ -1550,24 +6105,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="23">
         <f>($B$22)/(B3*$B$8)</f>
         <v>0.1611328125</v>
       </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="22">
         <f>(B26/1000)*(2^$B$6)</f>
         <v>0.66</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="22" t="s">
         <v>1</v>
       </c>
+      <c r="F26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1586,1058 +6148,1341 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="9">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="9">
-        <v>60.4</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9">
-        <v>12.1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="9">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1">
-        <f>(B8/(2^B9)/(B15/(B15+B14)))*1000</f>
-        <v>4.8273259943181817</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1">
-        <f>(B11/1000)*(2^B9)</f>
-        <v>19.772727272727273</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <f>B3*(10^C3)</f>
-        <v>60400</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <f>B14*(1+(B5/100))</f>
-        <v>61004</v>
-      </c>
-      <c r="E14" s="1">
-        <f>B14*(1-(B5/100))</f>
-        <v>59796</v>
-      </c>
-      <c r="G14" s="5">
-        <f>$B$1*(D15/(D15+D14))</f>
-        <v>2.0027586206896553</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B4*(10^C4)</f>
-        <v>12100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15*(1+(B6/100))</f>
-        <v>12221</v>
-      </c>
-      <c r="E15" s="1">
-        <f>B15*(1-(B6/100))</f>
-        <v>11979</v>
-      </c>
-      <c r="G15" s="5">
-        <f>$B$1*(E15/(E15+E14))</f>
-        <v>2.0027586206896553</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="5">
-        <f>$B$1*(D15/(D15+E14))</f>
-        <v>2.0363525278753629</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="5">
-        <f>$B$1*(E15/(E15+D14))</f>
-        <v>1.9696093610840881</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="7">
-        <f>MAX(G14:G15)</f>
-        <v>2.0027586206896553</v>
-      </c>
-      <c r="C19" s="7">
-        <f>$B$1*(B15/(B15+B14))</f>
-        <v>2.0027586206896553</v>
-      </c>
-      <c r="D19" s="7">
-        <f>MIN(G14:G15)</f>
-        <v>2.0027586206896553</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Typical Resistor Values'!$A$2:$A$97</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Typical Resistor Values'!$B$2:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B97"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11.5</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>16.899999999999999</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17.399999999999999</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>17.8</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>18.2</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18.7</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19.100000000000001</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>19.600000000000001</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20.5</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>22.1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>23.2</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>23.7</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>24.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>25.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>26.1</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>26.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>28.7</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>29.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>30.1</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>30.9</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>31.6</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>32.4</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>33.200000000000003</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>34</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>34.799999999999997</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>35.700000000000003</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>36.5</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>37.4</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>38.299999999999997</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>39.200000000000003</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>40.200000000000003</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>41.2</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>42.2</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>43.2</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>44.2</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>45.3</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>46.4</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>47.5</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>48.7</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>49.9</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>51.1</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>52.3</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>53.6</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>54.9</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>56.2</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>57.6</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>59</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>60.4</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>61.9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>63.4</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>64.900000000000006</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>66.5</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>68.099999999999994</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>69.8</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>71.5</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>73.2</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>75</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>76.8</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>78.7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>80.599999999999994</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>82.5</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>84.5</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>86.6</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>88.7</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>90.9</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93.1</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95.3</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>97.6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{5A57154C-1D7E-483C-A903-2A44E047516F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF550B9A-8AED-4A67-99CB-AE6688F922AF}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="13"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1.75</v>
-      </c>
-      <c r="C2" s="17">
-        <v>2.75</v>
-      </c>
-      <c r="D2" s="19">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="15">
-        <v>2.15</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2.95</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="15">
-        <v>30</v>
-      </c>
-      <c r="C4" s="17">
-        <v>25</v>
-      </c>
-      <c r="D4" s="19">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="15">
-        <v>60</v>
-      </c>
-      <c r="C5" s="17">
-        <v>95</v>
-      </c>
-      <c r="D5" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="15">
-        <f>$B$9-AVERAGE(B2,B3)</f>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="C10" s="17">
-        <f t="shared" ref="C10:D10" si="0">$B$9-AVERAGE(C2,C3)</f>
-        <v>0.44999999999999973</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="B3">
+        <v>6.5</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE(D3, "_", E3)</f>
+        <v>12_2.5</v>
+      </c>
+      <c r="I3">
+        <f>MIN(F3:G3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>12.5</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>6.5</v>
+      </c>
+      <c r="F4">
+        <v>330</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H34" si="0">CONCATENATE(D4, "_", E4)</f>
+        <v>12_6.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I34" si="1">MIN(F4:G4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>24.5</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12.5</v>
+      </c>
+      <c r="F5">
+        <v>680</v>
+      </c>
+      <c r="G5">
+        <v>470</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>0.57499999999999973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="15">
-        <f>B10/(B4/1000)</f>
-        <v>45</v>
-      </c>
-      <c r="C11" s="17">
-        <f t="shared" ref="C11:D11" si="1">C10/(C4/1000)</f>
-        <v>17.999999999999989</v>
-      </c>
-      <c r="D11" s="19">
+        <v>12_12.5</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>57.499999999999972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="9">
-        <v>59</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="9">
-        <v>23.2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="9">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="15">
-        <f>B13*(10^C13)</f>
-        <v>59</v>
-      </c>
-      <c r="C17" s="17">
-        <f>B14*(10^C14)</f>
-        <v>23.2</v>
-      </c>
-      <c r="D17" s="19">
-        <f>B15*(10^C15)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="16">
-        <f>(B10/B17)*1000</f>
-        <v>22.881355932203387</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" ref="C18:D18" si="2">(C10/C17)*1000</f>
-        <v>19.396551724137922</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="2"/>
-        <v>7.6666666666666625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="16">
-        <f>(((B18/1000)^2)*B17)*1000</f>
-        <v>30.889830508474567</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" ref="C19:D19" si="3">(((C18/1000)^2)*C17)*1000</f>
-        <v>8.7284482758620605</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="3"/>
-        <v>4.4083333333333288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="16">
-        <f>B3*B18</f>
-        <v>49.19491525423728</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" ref="C20:D20" si="4">C3*C18</f>
-        <v>57.219827586206875</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="4"/>
-        <v>21.849999999999987</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>47.5</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>24.5</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>12_24.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>92.5</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>47.5</v>
+      </c>
+      <c r="F7">
+        <v>2200</v>
+      </c>
+      <c r="G7">
+        <v>1800</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>12_47.5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>247.5</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>92.5</v>
+      </c>
+      <c r="F8">
+        <v>4700</v>
+      </c>
+      <c r="G8">
+        <v>3900</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>12_92.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>640.5</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>247.5</v>
+      </c>
+      <c r="F9">
+        <v>12000</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>12_247.5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>640.5</v>
+      </c>
+      <c r="F10">
+        <v>39000</v>
+      </c>
+      <c r="G10">
+        <v>33000</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>12_640.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>10_2.5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>6.5</v>
+      </c>
+      <c r="F12">
+        <v>390</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>10_6.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12.5</v>
+      </c>
+      <c r="F13">
+        <v>820</v>
+      </c>
+      <c r="G13">
+        <v>560</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>10_12.5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>24.5</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>1200</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>10_24.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>47.5</v>
+      </c>
+      <c r="F15">
+        <v>2200</v>
+      </c>
+      <c r="G15">
+        <v>1800</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>10_47.5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>92.5</v>
+      </c>
+      <c r="F16">
+        <v>5600</v>
+      </c>
+      <c r="G16">
+        <v>4700</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>10_92.5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>247.5</v>
+      </c>
+      <c r="F17">
+        <v>12000</v>
+      </c>
+      <c r="G17">
+        <v>10000</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>10_247.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>640.5</v>
+      </c>
+      <c r="F18">
+        <v>47000</v>
+      </c>
+      <c r="G18">
+        <v>39000</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>10_640.5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2.5</v>
+      </c>
+      <c r="F19">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>8_2.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>6.5</v>
+      </c>
+      <c r="F20">
+        <v>470</v>
+      </c>
+      <c r="G20">
+        <v>270</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>8_6.5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>12.5</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>680</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>8_12.5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>24.5</v>
+      </c>
+      <c r="F22">
+        <v>1800</v>
+      </c>
+      <c r="G22">
+        <v>1500</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>8_24.5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>47.5</v>
+      </c>
+      <c r="F23">
+        <v>2700</v>
+      </c>
+      <c r="G23">
+        <v>2200</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>8_47.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>92.5</v>
+      </c>
+      <c r="F24">
+        <v>6800</v>
+      </c>
+      <c r="G24">
+        <v>5600</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>8_92.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>247.5</v>
+      </c>
+      <c r="F25">
+        <v>15000</v>
+      </c>
+      <c r="G25">
+        <v>12000</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>8_247.5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>640.5</v>
+      </c>
+      <c r="F26">
+        <v>50000</v>
+      </c>
+      <c r="G26">
+        <v>50000</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>8_640.5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>2.5</v>
+      </c>
+      <c r="F27">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>6_2.5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6.5</v>
+      </c>
+      <c r="F28">
+        <v>560</v>
+      </c>
+      <c r="G28">
+        <v>330</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>6_6.5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>12.5</v>
+      </c>
+      <c r="F29">
+        <v>1200</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>6_12.5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>24.5</v>
+      </c>
+      <c r="F30">
+        <v>2700</v>
+      </c>
+      <c r="G30">
+        <v>2200</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>6_24.5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>47.5</v>
+      </c>
+      <c r="F31">
+        <v>3900</v>
+      </c>
+      <c r="G31">
+        <v>3300</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>6_47.5</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>92.5</v>
+      </c>
+      <c r="F32">
+        <v>8200</v>
+      </c>
+      <c r="G32">
+        <v>6800</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>6_92.5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>247.5</v>
+      </c>
+      <c r="F33">
+        <v>18000</v>
+      </c>
+      <c r="G33">
+        <v>15000</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>6_247.5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>640.5</v>
+      </c>
+      <c r="F34">
+        <v>50000</v>
+      </c>
+      <c r="G34">
+        <v>50000</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>6_640.5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Typical Resistor Values'!$B$2:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C13:C15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Typical Resistor Values'!$A$2:$A$97</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:B15</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>